--- a/data/trans_orig/Q04C_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q04C_2023-Clase-trans_orig.xlsx
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>107.5625256277105</v>
+        <v>107.3391019989071</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>105.4535625422208</v>
+        <v>105.5531747954714</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>107.3250344945727</v>
+        <v>107.7172407848001</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>118.2734123384119</v>
+        <v>118.1218807837542</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>112.8866859081213</v>
+        <v>112.9252269314528</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>114.4942150696266</v>
+        <v>114.8276602415975</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>99.50530231832336</v>
+        <v>99.63614988019984</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>99.08388001402646</v>
+        <v>98.60716869927283</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>100.1471702853354</v>
+        <v>100.1206638068232</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>109.2073090939753</v>
+        <v>109.241766903249</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>105.8420028529036</v>
+        <v>105.4305320043723</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>106.2151928227394</v>
+        <v>106.5782528310346</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>95.8849029366751</v>
+        <v>95.8006566072289</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>100.3096016432234</v>
+        <v>100.0494456302186</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>97.79281832935438</v>
+        <v>97.83039830874783</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>101.7551418408311</v>
+        <v>101.3689000692799</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>109.6318675503987</v>
+        <v>109.9078285489976</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>102.6740808928847</v>
+        <v>102.7814462260134</v>
       </c>
     </row>
     <row r="13">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>94.63708942336908</v>
+        <v>94.63708942336906</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>95.1352461300677</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>92.59478328015794</v>
+        <v>92.56757187698842</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>93.66316304409661</v>
+        <v>93.70310910777069</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>93.50176218187481</v>
+        <v>93.45254135592711</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>97.90305681279928</v>
+        <v>97.77189756258657</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>96.86654936438457</v>
+        <v>96.90417145489387</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>96.7494908524767</v>
+        <v>96.69981310579809</v>
       </c>
     </row>
     <row r="16">
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>94.75248462885654</v>
+        <v>94.75248462885655</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>92.45823252758139</v>
+        <v>92.45823252758142</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>93.40547067532589</v>
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>91.9546770324026</v>
+        <v>92.07027820321322</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>90.88292613910811</v>
+        <v>90.70753671107995</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>91.75193283010964</v>
+        <v>91.87444282148566</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>98.55899295236058</v>
+        <v>98.69624999708681</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>94.36189086391289</v>
+        <v>94.28129044229311</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>95.33612326190634</v>
+        <v>95.15312311263195</v>
       </c>
     </row>
     <row r="19">
@@ -841,7 +841,7 @@
         <v>96.21415769051694</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>97.20647827828054</v>
+        <v>97.20647827828056</v>
       </c>
     </row>
     <row r="20">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>94.56160179164128</v>
+        <v>94.74007203722874</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>94.02846871531861</v>
+        <v>94.23902861991566</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>95.11351669761839</v>
+        <v>94.8857604521672</v>
       </c>
     </row>
     <row r="21">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>110.3225228211968</v>
+        <v>110.6890039506575</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>98.65561193936196</v>
+        <v>98.86050217610033</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>99.83048972405913</v>
+        <v>99.93278532965211</v>
       </c>
     </row>
     <row r="22">
@@ -890,13 +890,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>99.65933170961468</v>
+        <v>99.65933170961466</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>97.94317923975998</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>98.80134982521041</v>
+        <v>98.80134982521042</v>
       </c>
     </row>
     <row r="23">
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>98.13217053484016</v>
+        <v>98.27470536335318</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>96.87722267907891</v>
+        <v>96.94863899218038</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>97.92809471953022</v>
+        <v>97.93856754077679</v>
       </c>
     </row>
     <row r="24">
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>101.4430184768616</v>
+        <v>101.3494736159036</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>99.00878086994564</v>
+        <v>99.06020479801377</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>99.80752503432585</v>
+        <v>99.80038964860492</v>
       </c>
     </row>
     <row r="25">
